--- a/results/mp/logistic/corona/confidence/84/masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,69 +40,69 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
@@ -112,123 +112,126 @@
     <t>19</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
@@ -238,13 +241,10 @@
     <t>you</t>
   </si>
   <si>
-    <t>?</t>
+    <t>for</t>
   </si>
   <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.815068493150685</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -721,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7894736842105263</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7837837837837838</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -845,13 +845,13 @@
         <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7647058823529411</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -995,13 +995,13 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8302872062663186</v>
+        <v>0.793733681462141</v>
       </c>
       <c r="L9">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M9">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7241379310344828</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5767195767195767</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C11">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.576271186440678</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>0.8170731707317073</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5098039215686274</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8085106382978723</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="C14">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4496644295302014</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="D15">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7875</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L15">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3866666666666667</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7625</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3818181818181818</v>
+        <v>0.4563758389261745</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K17">
-        <v>0.7735849056603774</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3805555555555555</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C18">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7734375</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3454545454545455</v>
+        <v>0.3944444444444444</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,13 +1489,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K19">
-        <v>0.725</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L19">
         <v>29</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2444444444444444</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K20">
-        <v>0.717948717948718</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2261904761904762</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7142857142857143</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,13 +1621,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1528150134048257</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1639,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>316</v>
+        <v>69</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7083333333333334</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,13 +1671,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06333333333333334</v>
+        <v>0.128686327077748</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1689,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K23">
-        <v>0.7037037037037037</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,37 +1721,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01391231028667791</v>
+        <v>0.0139005897219882</v>
       </c>
       <c r="C24">
         <v>33</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F24">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6744186046511628</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1771,37 +1771,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01063144329896907</v>
+        <v>0.009351821992905514</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="F25">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K25">
-        <v>0.6323529411764706</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L25">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M25">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1821,37 +1821,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01029480580252691</v>
+        <v>0.008882655446470314</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="F26">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K26">
-        <v>0.6285714285714286</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1871,37 +1871,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.00602878257487359</v>
+        <v>0.005630404182585964</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F27">
-        <v>0.5700000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>5111</v>
+        <v>4945</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K27">
-        <v>0.6063829787234043</v>
+        <v>0.602510460251046</v>
       </c>
       <c r="L27">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="M27">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1921,25 +1921,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005433688871000202</v>
+        <v>0.005446411204045905</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="F28">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>4942</v>
+        <v>5113</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>61</v>
@@ -1948,10 +1948,10 @@
         <v>0.6</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1971,37 +1971,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004879182156133829</v>
+        <v>0.00463821892393321</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="F29">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>4283</v>
+        <v>4292</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2021,25 +2021,25 @@
         <v>63</v>
       </c>
       <c r="K30">
-        <v>0.5898305084745763</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L30">
         <v>174</v>
       </c>
       <c r="M30">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2047,13 +2047,13 @@
         <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5757575757575758</v>
+        <v>0.575</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2073,13 +2073,13 @@
         <v>65</v>
       </c>
       <c r="K32">
-        <v>0.5690376569037657</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2099,13 +2099,13 @@
         <v>66</v>
       </c>
       <c r="K33">
-        <v>0.5428571428571428</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2125,13 +2125,13 @@
         <v>67</v>
       </c>
       <c r="K34">
-        <v>0.5280898876404494</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L34">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2151,13 +2151,13 @@
         <v>68</v>
       </c>
       <c r="K35">
-        <v>0.4901960784313725</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2177,25 +2177,25 @@
         <v>69</v>
       </c>
       <c r="K36">
-        <v>0.3472222222222222</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2203,25 +2203,25 @@
         <v>70</v>
       </c>
       <c r="K37">
-        <v>0.3448275862068966</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2229,13 +2229,13 @@
         <v>71</v>
       </c>
       <c r="K38">
-        <v>0.34375</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2255,13 +2255,13 @@
         <v>72</v>
       </c>
       <c r="K39">
-        <v>0.3076923076923077</v>
+        <v>0.3125</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2281,25 +2281,25 @@
         <v>73</v>
       </c>
       <c r="K40">
-        <v>0.02587646076794658</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1167</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2307,25 +2307,25 @@
         <v>74</v>
       </c>
       <c r="K41">
-        <v>0.009201171058134672</v>
+        <v>0.02671118530884808</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N41">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O41">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2369</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2333,25 +2333,25 @@
         <v>75</v>
       </c>
       <c r="K42">
-        <v>0.009019165727170236</v>
+        <v>0.01198738170347003</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N42">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="O42">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2637</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2359,103 +2359,77 @@
         <v>76</v>
       </c>
       <c r="K43">
-        <v>0.005954246317768724</v>
+        <v>0.0101427498121713</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N43">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="O43">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3172</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K44">
-        <v>0.005572324123519851</v>
+        <v>0.004671987541366556</v>
       </c>
       <c r="L44">
         <v>24</v>
       </c>
       <c r="M44">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N44">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="O44">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>4283</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K45">
-        <v>0.005433688871000202</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N45">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="O45">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>4942</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46">
-        <v>0.004479937670432412</v>
-      </c>
-      <c r="L46">
-        <v>23</v>
-      </c>
-      <c r="M46">
-        <v>54</v>
-      </c>
-      <c r="N46">
-        <v>0.43</v>
-      </c>
-      <c r="O46">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>5111</v>
+        <v>4945</v>
       </c>
     </row>
   </sheetData>
